--- a/src/test/resources/BMI_MetaData.xlsx
+++ b/src/test/resources/BMI_MetaData.xlsx
@@ -21223,8 +21223,8 @@
   <dimension ref="A1:D3400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
